--- a/source-xlsx/22-04-2020.xlsx
+++ b/source-xlsx/22-04-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\covid19\source-xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1545F80-E8C0-436D-A726-F6B4E2C29C81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9684C144-A2DA-4158-9046-9295427FA4F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:A59"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/source-xlsx/22-04-2020.xlsx
+++ b/source-xlsx/22-04-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\covid19\source-xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9684C144-A2DA-4158-9046-9295427FA4F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC4D0C0-F7EB-4ED4-98C4-746ACAEB5DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1011,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:E204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1026,7 @@
     <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1039,8 +1039,12 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2">
+        <f>SUM(C2:C205)</f>
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -1051,7 +1055,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1062,7 +1066,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1073,7 +1077,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1084,7 +1088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -1095,7 +1099,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1106,7 +1110,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1117,7 +1121,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -1128,7 +1132,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1139,7 +1143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1150,7 +1154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1161,7 +1165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1172,7 +1176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -1183,7 +1187,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1194,7 +1198,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
